--- a/CaseAndFatalityDemographicsData/2021-03-26.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-03-26.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehuebner963\Desktop\WIRID Box\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC146AA7-6C2D-455B-A744-B4291FCC8F17}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28D1F403-6758-470E-BDD9-F4342FBE623F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="806" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11390" tabRatio="806" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -20,10 +20,16 @@
     <sheet name="Fatalities by Gender" sheetId="7" r:id="rId5"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -548,16 +554,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBE98AD-F551-4399-A212-2161860B6EB7}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -568,151 +574,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$15</f>
-        <v>3.5097369006927802E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.5066221712378768E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>1.6789114577194567E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.6816143497757848E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>3474</v>
+        <v>3501</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>4.5495619376890742E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.56382313067056E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>15230</v>
+        <v>15292</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>0.19945258581175762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.19934299718427365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>16834</v>
+        <v>16883</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>0.22045862308306813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.220082907498175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>14738</v>
+        <v>14783</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>0.19300933747167984</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.19270779017624362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>12357</v>
+        <v>12408</v>
       </c>
       <c r="C8" s="12">
         <f t="shared" si="0"/>
-        <v>0.16182768239500256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.16174783606215457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>4439</v>
+        <v>4464</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" si="0"/>
-        <v>5.8133291426027058E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.8191677964334131E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>2985</v>
+        <v>3005</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>3.9091659136447569E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.9172489310668475E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>1770</v>
+        <v>1788</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
-        <v>2.3179978784426198E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.3307957034101576E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>1157</v>
+        <v>1170</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="0"/>
-        <v>1.5152110425752039E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.5251851079361769E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>1812</v>
+        <v>1846</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="0"/>
-        <v>2.3730012179310887E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.4064031702993014E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -721,15 +727,16 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" si="0"/>
-        <v>1.7024843175002293E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.6946501199290853E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>76359</v>
+        <f>SUM(B2:B14)</f>
+        <v>76712</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="0"/>
@@ -746,12 +753,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -762,48 +769,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4">
-        <v>25596</v>
+        <v>25732</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$5</f>
-        <v>0.33520606608258358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.33543643758473252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4">
-        <v>49858</v>
+        <v>50079</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.65294202386097255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.65281833350714358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>1.1851910056443904E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.1745228908123892E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>76359</v>
+        <f>SUM(B2:B4)</f>
+        <v>76712</v>
       </c>
       <c r="C5" s="11">
         <f t="shared" si="0"/>
@@ -820,15 +828,15 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -839,84 +847,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="4">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$8</f>
-        <v>1.2310271218847811E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.227969548440922E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4">
-        <v>12803</v>
+        <v>12850</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>0.16766851320734949</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.16750964646991345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="4">
-        <v>27812</v>
+        <v>27870</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>0.36422687567935674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.36330691417248934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>5.8408308123469397E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.0746688914381066E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4">
-        <v>25941</v>
+        <v>26140</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>0.33972419754056499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.34075503180727917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4">
-        <v>8417</v>
+        <v>8444</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>0.11022931154153406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.11007404317447075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>76359</v>
+        <f>SUM(B2:B7)</f>
+        <v>76712</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" si="0"/>
@@ -933,15 +942,15 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -952,151 +961,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>6</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$15</f>
-        <v>1.2977181788688223E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2769761205465457E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>11</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.3791499945928409E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.3411228876686673E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
-        <v>31</v>
+      <c r="B4" s="4">
+        <v>32</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>6.7048772574889153E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.8105393095815772E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
-        <v>224</v>
+      <c r="B5" s="4">
+        <v>227</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>4.8448145344436033E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.8312263227344313E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
-        <v>743</v>
+      <c r="B6" s="4">
+        <v>760</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>1.6070076781658917E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.6175030860256248E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
-        <v>2171</v>
+      <c r="B7" s="4">
+        <v>2219</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>4.6955769438736888E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.7226833524879754E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
-        <v>5062</v>
+      <c r="B8" s="4">
+        <v>5154</v>
       </c>
       <c r="C8" s="12">
         <f t="shared" si="0"/>
-        <v>0.10948415702389964</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.10969224875494828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
-        <v>4283</v>
+      <c r="B9" s="4">
+        <v>4375</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" si="0"/>
-        <v>9.2635449334919434E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.311284212318563E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
-        <v>5538</v>
+      <c r="B10" s="4">
+        <v>5649</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>0.11977938790959231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.12022730174945728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
-        <v>6192</v>
+      <c r="B11" s="4">
+        <v>6295</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
-        <v>0.13392451605926248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.1339760779806751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
-        <v>6189</v>
+      <c r="B12" s="4">
+        <v>6293</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="0"/>
-        <v>0.13385963015031901</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.13393351210999022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
-        <v>15785</v>
+      <c r="B13" s="4">
+        <v>15965</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="0"/>
-        <v>0.34140802422407268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.33978206274209338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1108,12 +1117,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="8">
-        <v>46235</v>
+        <f>SUM(B2:B14)</f>
+        <v>46986</v>
       </c>
       <c r="C15" s="15">
         <f t="shared" si="0"/>
@@ -1130,12 +1140,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1146,31 +1156,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="7">
-        <v>19362</v>
+        <v>19665</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$5</f>
-        <v>0.41877365632096897</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.4185289235091304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="7">
-        <v>26872</v>
+        <v>27320</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58120471504271654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.58144979355552717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1179,15 +1189,16 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>2.1628636314480372E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.1282935342442429E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>46235</v>
+        <f>SUM(B2:B4)</f>
+        <v>46986</v>
       </c>
       <c r="C5" s="16">
         <f t="shared" si="0"/>
@@ -1203,16 +1214,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1223,85 +1234,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>954</v>
+      <c r="B2" s="10">
+        <v>977</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$8</f>
-        <v>2.0633719044014277E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.0793427829566252E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="9">
-        <v>4528</v>
+        <v>4635</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>9.7934465231967124E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.8646405312220659E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="10">
-        <v>21433</v>
+        <v>21773</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>0.46356656212825781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.463393351210999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="10">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>5.407159078620093E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.4271485123228193E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4">
-        <v>19046</v>
+        <v>19321</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>0.41193900724559318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.4112075937513302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>5.1908727154752893E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.3207338356106072E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>46235</v>
+        <v>46986</v>
       </c>
       <c r="C8" s="16">
         <f t="shared" si="0"/>
